--- a/nba_roy_pivot_table.xlsx
+++ b/nba_roy_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>

--- a/nba_roy_pivot_table.xlsx
+++ b/nba_roy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>player</t>
   </si>
@@ -130,16 +130,10 @@
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>LaMelo Ball</t>
-  </si>
-  <si>
     <t>Larry Bird</t>
   </si>
   <si>
     <t>Larry Johnson</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
   </si>
   <si>
     <t>Luka Dončić</t>
@@ -572,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,22 +1084,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nba_roy_pivot_table.xlsx
+++ b/nba_roy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>player</t>
   </si>
@@ -130,10 +130,16 @@
     <t>Kyrie Irving</t>
   </si>
   <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
     <t>Larry Bird</t>
   </si>
   <si>
     <t>Larry Johnson</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
   </si>
   <si>
     <t>Luka Dončić</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,7 +879,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -897,7 +903,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1081,6 +1087,22 @@
         <v>64</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
         <v>1</v>
       </c>
     </row>

--- a/nba_roy_pivot_table.xlsx
+++ b/nba_roy_pivot_table.xlsx
@@ -879,7 +879,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -903,7 +903,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
